--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1314697.926119148</v>
+        <v>1312349.886229716</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5861169.424157197</v>
+        <v>5861169.424157189</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937672749</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11244278.78401416</v>
+        <v>11244278.78401418</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>44.83908679504764</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>65.57588612622627</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>307.9222910483167</v>
+        <v>22.74361900279177</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.925119512544002</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.3738416199582</v>
       </c>
       <c r="H11" t="n">
-        <v>299.237997029287</v>
+        <v>299.2379970292871</v>
       </c>
       <c r="I11" t="n">
-        <v>59.00713057159953</v>
+        <v>59.00713057159987</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749026</v>
       </c>
       <c r="T11" t="n">
-        <v>205.8971077829946</v>
+        <v>205.8971077829947</v>
       </c>
       <c r="U11" t="n">
         <v>251.0313412362223</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.2413725340129</v>
+        <v>135.241372534013</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608714</v>
       </c>
       <c r="I12" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544177</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.636756609749</v>
+        <v>132.6367566097491</v>
       </c>
       <c r="T12" t="n">
         <v>191.6916106499414</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.430196584932</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.2286119169542</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5581238002447</v>
       </c>
       <c r="I13" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.05094259824705</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>169.8753827278188</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2229002233179</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,10 +1622,10 @@
         <v>411.3738416199582</v>
       </c>
       <c r="H14" t="n">
-        <v>299.237997029287</v>
+        <v>299.2379970292874</v>
       </c>
       <c r="I14" t="n">
-        <v>59.00713057159953</v>
+        <v>59.00713057159987</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749026</v>
       </c>
       <c r="T14" t="n">
-        <v>205.8971077829946</v>
+        <v>205.8971077829947</v>
       </c>
       <c r="U14" t="n">
         <v>251.0313412362223</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.2413725340129</v>
+        <v>135.241372534013</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608714</v>
       </c>
       <c r="I15" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544177</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.636756609749</v>
+        <v>132.6367566097491</v>
       </c>
       <c r="T15" t="n">
         <v>191.6916106499414</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2286119169542</v>
+        <v>136.7122411822486</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.05094259824723</v>
       </c>
       <c r="S16" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4154739963984</v>
+        <v>220.4154739963985</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>213.7812521092004</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I17" t="n">
-        <v>59.0071305715995</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I18" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10.22559019253194</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9793823296771791</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.4154739963984</v>
@@ -2059,13 +2059,13 @@
         <v>286.2229002233179</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I20" t="n">
-        <v>59.0071305715995</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I21" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>78.36008300705603</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T22" t="n">
         <v>220.4154739963984</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>8.792119717050269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2286119169542</v>
+        <v>78.36008300705552</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T25" t="n">
         <v>220.4154739963984</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.7105038207759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>44.17058434933685</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>177.4507143278942</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>48.49503194400614</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>94.0850724410156</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>112.2898785673248</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.9117655187999</v>
+        <v>132.9117655187517</v>
       </c>
       <c r="C37" t="n">
-        <v>120.3266064354904</v>
+        <v>120.3266064354422</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6952583550749</v>
+        <v>101.6952583550268</v>
       </c>
       <c r="E37" t="n">
-        <v>99.51374798343173</v>
+        <v>99.51374798338358</v>
       </c>
       <c r="F37" t="n">
-        <v>97.19145000417939</v>
+        <v>98.50083335974566</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1055935958908</v>
+        <v>119.1055935958426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.83480025118334</v>
+        <v>97.83480025113519</v>
       </c>
       <c r="I37" t="n">
-        <v>49.43220574670065</v>
+        <v>48.12282239218584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.01193800690989</v>
+        <v>42.01193800686175</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8488106683045</v>
+        <v>142.8488106682563</v>
       </c>
       <c r="T37" t="n">
-        <v>172.6287346130318</v>
+        <v>172.6287346129836</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2916235424754</v>
+        <v>239.2916235424273</v>
       </c>
       <c r="V37" t="n">
-        <v>205.2174286606906</v>
+        <v>205.2174286606424</v>
       </c>
       <c r="W37" t="n">
-        <v>239.6027836734536</v>
+        <v>239.6027836734054</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7894407258997</v>
+        <v>178.7894407258516</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6644386889573</v>
+        <v>171.6644386889092</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124458</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3746,19 +3746,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4153,7 +4153,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1759.555763042629</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C2" t="n">
-        <v>1390.593246102217</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>447.3759705987316</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,13 +4443,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.95295430729</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005397</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022955</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287635</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430001</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150932</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027575</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4893,31 +4893,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.67431112977</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.711794189358</v>
+        <v>2028.711794189359</v>
       </c>
       <c r="D11" t="n">
         <v>1670.446095582608</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.657842984363</v>
+        <v>1284.657842984364</v>
       </c>
       <c r="F11" t="n">
-        <v>873.671938194756</v>
+        <v>873.6719381947569</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1428052453039</v>
+        <v>458.1428052453029</v>
       </c>
       <c r="H11" t="n">
-        <v>155.8822021854176</v>
+        <v>155.8822021854169</v>
       </c>
       <c r="I11" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188169</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5747702342507</v>
+        <v>414.5747702342499</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.362364459017</v>
+        <v>1012.362364459015</v>
       </c>
       <c r="L11" t="n">
-        <v>1806.247362632019</v>
+        <v>1806.247362632015</v>
       </c>
       <c r="M11" t="n">
-        <v>2387.395193600496</v>
+        <v>2261.18553567745</v>
       </c>
       <c r="N11" t="n">
-        <v>2854.308550287857</v>
+        <v>2854.308550287861</v>
       </c>
       <c r="O11" t="n">
-        <v>3658.858511106402</v>
+        <v>3658.858511106405</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.848905836293</v>
+        <v>4307.848905836295</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.991904648172</v>
+        <v>4717.991904648173</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.951999594084</v>
+        <v>4813.951999594085</v>
       </c>
       <c r="S11" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942668</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394189</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044469</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700898</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430784</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169704</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.274151193892</v>
       </c>
     </row>
     <row r="12">
@@ -5094,61 +5094,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>972.0997922012563</v>
+        <v>972.0997922012565</v>
       </c>
       <c r="C12" t="n">
-        <v>797.6467629201293</v>
+        <v>797.6467629201295</v>
       </c>
       <c r="D12" t="n">
-        <v>648.712353258878</v>
+        <v>648.7123532588782</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4748982534226</v>
+        <v>489.4748982534228</v>
       </c>
       <c r="F12" t="n">
-        <v>342.9403402803075</v>
+        <v>342.9403402803078</v>
       </c>
       <c r="G12" t="n">
-        <v>206.3328932762541</v>
+        <v>206.3328932762543</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4711228862671</v>
+        <v>113.4711228862673</v>
       </c>
       <c r="I12" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188169</v>
       </c>
       <c r="J12" t="n">
-        <v>292.1604166971855</v>
+        <v>292.160416697185</v>
       </c>
       <c r="K12" t="n">
-        <v>534.672952997134</v>
+        <v>534.6729529971408</v>
       </c>
       <c r="L12" t="n">
-        <v>849.372551970093</v>
+        <v>849.3725519700988</v>
       </c>
       <c r="M12" t="n">
-        <v>1235.969008722662</v>
+        <v>1235.969008722666</v>
       </c>
       <c r="N12" t="n">
-        <v>1647.206168247559</v>
+        <v>1647.206168247562</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.188032313729</v>
+        <v>2001.188032313731</v>
       </c>
       <c r="P12" t="n">
-        <v>2265.956619575952</v>
+        <v>2265.956619575953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="R12" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="S12" t="n">
         <v>2467.028205012516</v>
       </c>
       <c r="T12" t="n">
-        <v>2273.40031546712</v>
+        <v>2273.400315467121</v>
       </c>
       <c r="U12" t="n">
         <v>2045.316393151755</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.1143017141767</v>
+        <v>559.1151851839323</v>
       </c>
       <c r="C13" t="n">
-        <v>475.1781187862698</v>
+        <v>559.1151851839323</v>
       </c>
       <c r="D13" t="n">
-        <v>367.6728697105809</v>
+        <v>559.1151851839323</v>
       </c>
       <c r="E13" t="n">
-        <v>367.6728697105809</v>
+        <v>559.1151851839323</v>
       </c>
       <c r="F13" t="n">
-        <v>367.6728697105809</v>
+        <v>412.225237686022</v>
       </c>
       <c r="G13" t="n">
-        <v>199.7651809055766</v>
+        <v>244.3175488810177</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7651809055766</v>
+        <v>96.27903999188169</v>
       </c>
       <c r="I13" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188169</v>
       </c>
       <c r="J13" t="n">
-        <v>127.2068360096031</v>
+        <v>127.2068360096028</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238309</v>
       </c>
       <c r="L13" t="n">
-        <v>594.5774814768323</v>
+        <v>594.5774814768309</v>
       </c>
       <c r="M13" t="n">
-        <v>907.2620358138199</v>
+        <v>907.262035813818</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754868</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214381</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862613</v>
       </c>
       <c r="Q13" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.01982157672</v>
       </c>
       <c r="R13" t="n">
-        <v>1658.978465416878</v>
+        <v>1758.01982157672</v>
       </c>
       <c r="S13" t="n">
-        <v>1658.978465416878</v>
+        <v>1586.428525892054</v>
       </c>
       <c r="T13" t="n">
-        <v>1658.978465416878</v>
+        <v>1586.428525892054</v>
       </c>
       <c r="U13" t="n">
-        <v>1369.864424787264</v>
+        <v>1297.31448526244</v>
       </c>
       <c r="V13" t="n">
-        <v>1115.179936581377</v>
+        <v>1297.31448526244</v>
       </c>
       <c r="W13" t="n">
-        <v>825.7627665444164</v>
+        <v>1007.89731522548</v>
       </c>
       <c r="X13" t="n">
-        <v>825.7627665444164</v>
+        <v>779.9077643274625</v>
       </c>
       <c r="Y13" t="n">
-        <v>825.7627665444164</v>
+        <v>559.1151851839323</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.67431112977</v>
       </c>
       <c r="C14" t="n">
         <v>2028.711794189358</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E14" t="n">
         <v>1284.657842984363</v>
       </c>
       <c r="F14" t="n">
-        <v>873.6719381947553</v>
+        <v>873.6719381947557</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1428052453025</v>
+        <v>458.1428052453032</v>
       </c>
       <c r="H14" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854169</v>
       </c>
       <c r="I14" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J14" t="n">
-        <v>367.336510040996</v>
+        <v>414.5747702342499</v>
       </c>
       <c r="K14" t="n">
-        <v>644.2201458203092</v>
+        <v>1012.362364459015</v>
       </c>
       <c r="L14" t="n">
-        <v>1438.105143993311</v>
+        <v>1806.247362632015</v>
       </c>
       <c r="M14" t="n">
-        <v>2338.061715196651</v>
+        <v>2387.395193600501</v>
       </c>
       <c r="N14" t="n">
-        <v>3237.948527051876</v>
+        <v>2854.30855028786</v>
       </c>
       <c r="O14" t="n">
-        <v>4042.498487870422</v>
+        <v>3658.858511106404</v>
       </c>
       <c r="P14" t="n">
-        <v>4372.908161510545</v>
+        <v>4307.848905836294</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.051160322424</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R14" t="n">
         <v>4813.951999594084</v>
@@ -5306,22 +5306,22 @@
         <v>4693.254671942667</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394189</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044469</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700898</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430784</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169704</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.274151193892</v>
       </c>
     </row>
     <row r="15">
@@ -5331,61 +5331,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>972.0997922012563</v>
+        <v>972.0997922012565</v>
       </c>
       <c r="C15" t="n">
-        <v>797.6467629201293</v>
+        <v>797.6467629201295</v>
       </c>
       <c r="D15" t="n">
-        <v>648.712353258878</v>
+        <v>648.7123532588782</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4748982534226</v>
+        <v>489.4748982534228</v>
       </c>
       <c r="F15" t="n">
-        <v>342.9403402803075</v>
+        <v>342.9403402803078</v>
       </c>
       <c r="G15" t="n">
-        <v>206.3328932762541</v>
+        <v>206.3328932762543</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4711228862671</v>
+        <v>113.4711228862673</v>
       </c>
       <c r="I15" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3302917101808</v>
+        <v>292.160416697185</v>
       </c>
       <c r="K15" t="n">
-        <v>366.923022498548</v>
+        <v>534.6729529971408</v>
       </c>
       <c r="L15" t="n">
-        <v>681.622621471507</v>
+        <v>849.3725519700988</v>
       </c>
       <c r="M15" t="n">
-        <v>1443.945523581152</v>
+        <v>1235.969008722666</v>
       </c>
       <c r="N15" t="n">
-        <v>1855.182683106049</v>
+        <v>1647.206168247562</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.164547172219</v>
+        <v>2001.188032313731</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.933134434442</v>
+        <v>2265.956619575953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="R15" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="S15" t="n">
         <v>2467.028205012516</v>
       </c>
       <c r="T15" t="n">
-        <v>2273.40031546712</v>
+        <v>2273.400315467121</v>
       </c>
       <c r="U15" t="n">
         <v>2045.316393151755</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>834.7642009399594</v>
+        <v>551.221489413544</v>
       </c>
       <c r="C16" t="n">
-        <v>665.8280180120526</v>
+        <v>382.285306485637</v>
       </c>
       <c r="D16" t="n">
-        <v>515.7113785997168</v>
+        <v>382.285306485637</v>
       </c>
       <c r="E16" t="n">
-        <v>515.7113785997168</v>
+        <v>234.3722129032439</v>
       </c>
       <c r="F16" t="n">
-        <v>515.7113785997168</v>
+        <v>234.3722129032439</v>
       </c>
       <c r="G16" t="n">
-        <v>347.8036897947126</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H16" t="n">
-        <v>199.7651809055766</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I16" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J16" t="n">
-        <v>127.2068360096031</v>
+        <v>127.2068360096028</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238309</v>
       </c>
       <c r="L16" t="n">
-        <v>594.5774814768323</v>
+        <v>594.5774814768301</v>
       </c>
       <c r="M16" t="n">
-        <v>907.2620358138199</v>
+        <v>907.2620358138172</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754867</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214379</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862611</v>
       </c>
       <c r="Q16" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576719</v>
       </c>
       <c r="R16" t="n">
-        <v>1758.019821576724</v>
+        <v>1658.978465416873</v>
       </c>
       <c r="S16" t="n">
-        <v>1562.763922598737</v>
+        <v>1658.978465416873</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.122029673082</v>
+        <v>1436.336572491218</v>
       </c>
       <c r="U16" t="n">
-        <v>1340.122029673082</v>
+        <v>1436.336572491218</v>
       </c>
       <c r="V16" t="n">
-        <v>1340.122029673082</v>
+        <v>1181.652084285331</v>
       </c>
       <c r="W16" t="n">
-        <v>1050.704859636121</v>
+        <v>1181.652084285331</v>
       </c>
       <c r="X16" t="n">
-        <v>834.7642009399594</v>
+        <v>953.6625333873138</v>
       </c>
       <c r="Y16" t="n">
-        <v>834.7642009399594</v>
+        <v>732.8699542437837</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>2028.711794189358</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.446095582608</v>
+        <v>1670.446095582607</v>
       </c>
       <c r="E17" t="n">
         <v>1284.657842984363</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6719381947552</v>
+        <v>873.6719381947553</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1428052453024</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I17" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J17" t="n">
-        <v>414.5747702342507</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K17" t="n">
         <v>1012.362364459017</v>
       </c>
       <c r="L17" t="n">
-        <v>1806.247362632019</v>
+        <v>1806.247362632018</v>
       </c>
       <c r="M17" t="n">
-        <v>2387.395193600496</v>
+        <v>2261.185535677454</v>
       </c>
       <c r="N17" t="n">
         <v>2854.308550287857</v>
@@ -5592,25 +5592,25 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3302917101808</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K18" t="n">
-        <v>628.7436071410009</v>
+        <v>491.7531474855526</v>
       </c>
       <c r="L18" t="n">
-        <v>943.4432061139601</v>
+        <v>806.4527464585116</v>
       </c>
       <c r="M18" t="n">
-        <v>1330.039662866529</v>
+        <v>1193.04920321108</v>
       </c>
       <c r="N18" t="n">
-        <v>1741.276822391426</v>
+        <v>1604.286362735977</v>
       </c>
       <c r="O18" t="n">
-        <v>2095.258686457596</v>
+        <v>1958.268226802147</v>
       </c>
       <c r="P18" t="n">
-        <v>2360.027273719819</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.004726840545</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.26831507236368</v>
+        <v>676.156896994408</v>
       </c>
       <c r="C19" t="n">
-        <v>97.26831507236368</v>
+        <v>676.156896994408</v>
       </c>
       <c r="D19" t="n">
-        <v>97.26831507236368</v>
+        <v>526.0402575820723</v>
       </c>
       <c r="E19" t="n">
-        <v>97.26831507236368</v>
+        <v>515.7113785997169</v>
       </c>
       <c r="F19" t="n">
-        <v>97.26831507236368</v>
+        <v>515.7113785997169</v>
       </c>
       <c r="G19" t="n">
-        <v>97.26831507236368</v>
+        <v>347.8036897947127</v>
       </c>
       <c r="H19" t="n">
-        <v>97.26831507236368</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="I19" t="n">
         <v>96.27903999188167</v>
@@ -5674,49 +5674,49 @@
         <v>127.2068360096031</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8675422238317</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L19" t="n">
-        <v>594.5774814768324</v>
+        <v>594.577481476832</v>
       </c>
       <c r="M19" t="n">
-        <v>907.2620358138201</v>
+        <v>907.2620358138196</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862615</v>
       </c>
       <c r="Q19" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R19" t="n">
-        <v>1758.019821576724</v>
+        <v>1658.978465416877</v>
       </c>
       <c r="S19" t="n">
-        <v>1562.763922598737</v>
+        <v>1658.978465416877</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.122029673082</v>
+        <v>1436.336572491222</v>
       </c>
       <c r="U19" t="n">
-        <v>1051.007989043468</v>
+        <v>1147.222531861608</v>
       </c>
       <c r="V19" t="n">
-        <v>796.3235008375815</v>
+        <v>1147.222531861608</v>
       </c>
       <c r="W19" t="n">
-        <v>506.9063308006209</v>
+        <v>857.8053618246478</v>
       </c>
       <c r="X19" t="n">
-        <v>278.9167799026034</v>
+        <v>857.8053618246478</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.9167799026034</v>
+        <v>857.8053618246478</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5738,28 @@
         <v>1284.657842984363</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6719381947552</v>
+        <v>873.6719381947553</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1428052453024</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I20" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J20" t="n">
-        <v>414.5747702342507</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K20" t="n">
         <v>1012.362364459017</v>
       </c>
       <c r="L20" t="n">
-        <v>1806.247362632019</v>
+        <v>1806.247362632018</v>
       </c>
       <c r="M20" t="n">
-        <v>2387.395193600496</v>
+        <v>2261.185535677454</v>
       </c>
       <c r="N20" t="n">
         <v>2854.308550287857</v>
@@ -5829,13 +5829,13 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3302917101808</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K21" t="n">
-        <v>534.6729529971337</v>
+        <v>534.6729529971346</v>
       </c>
       <c r="L21" t="n">
-        <v>849.3725519700928</v>
+        <v>849.3725519700936</v>
       </c>
       <c r="M21" t="n">
         <v>1235.969008722662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>834.6387856332167</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="C22" t="n">
-        <v>665.7026027053098</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="D22" t="n">
-        <v>515.585963292974</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6728697105809</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="F22" t="n">
-        <v>367.6728697105809</v>
+        <v>199.7651809055766</v>
       </c>
       <c r="G22" t="n">
         <v>199.7651809055766</v>
@@ -5911,16 +5911,16 @@
         <v>127.2068360096031</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8675422238317</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5774814768324</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M22" t="n">
-        <v>907.2620358138201</v>
+        <v>907.2620358138199</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O22" t="n">
         <v>1488.897144214384</v>
@@ -5935,25 +5935,25 @@
         <v>1758.019821576724</v>
       </c>
       <c r="S22" t="n">
-        <v>1758.019821576724</v>
+        <v>1562.763922598737</v>
       </c>
       <c r="T22" t="n">
-        <v>1535.377928651069</v>
+        <v>1340.122029673082</v>
       </c>
       <c r="U22" t="n">
-        <v>1535.377928651069</v>
+        <v>1051.007989043468</v>
       </c>
       <c r="V22" t="n">
-        <v>1535.377928651069</v>
+        <v>796.3235008375809</v>
       </c>
       <c r="W22" t="n">
-        <v>1245.960758614108</v>
+        <v>506.9063308006204</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.079829606987</v>
+        <v>278.9167799026029</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.287250463456</v>
+        <v>278.9167799026029</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D23" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F23" t="n">
-        <v>873.6719381947541</v>
+        <v>873.671938194756</v>
       </c>
       <c r="G23" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H23" t="n">
         <v>155.8822021854166</v>
@@ -6014,25 +6014,25 @@
         <v>4813.951999594084</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>292.1604166971855</v>
       </c>
       <c r="K24" t="n">
-        <v>742.6494678556248</v>
+        <v>534.6729529971346</v>
       </c>
       <c r="L24" t="n">
-        <v>1057.349066828584</v>
+        <v>849.3725519700936</v>
       </c>
       <c r="M24" t="n">
-        <v>1443.945523581152</v>
+        <v>1235.969008722662</v>
       </c>
       <c r="N24" t="n">
-        <v>1855.182683106049</v>
+        <v>1647.206168247559</v>
       </c>
       <c r="O24" t="n">
-        <v>2209.164547172219</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P24" t="n">
-        <v>2473.933134434442</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.004726840545</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>515.585963292974</v>
+        <v>278.9167799026023</v>
       </c>
       <c r="C25" t="n">
-        <v>515.585963292974</v>
+        <v>278.9167799026023</v>
       </c>
       <c r="D25" t="n">
-        <v>515.585963292974</v>
+        <v>278.9167799026023</v>
       </c>
       <c r="E25" t="n">
-        <v>367.6728697105809</v>
+        <v>278.9167799026023</v>
       </c>
       <c r="F25" t="n">
-        <v>367.6728697105809</v>
+        <v>278.9167799026023</v>
       </c>
       <c r="G25" t="n">
         <v>199.7651809055766</v>
@@ -6154,7 +6154,7 @@
         <v>594.5774814768322</v>
       </c>
       <c r="M25" t="n">
-        <v>907.2620358138198</v>
+        <v>907.2620358138197</v>
       </c>
       <c r="N25" t="n">
         <v>1217.94626675487</v>
@@ -6163,7 +6163,7 @@
         <v>1488.897144214383</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862615</v>
       </c>
       <c r="Q25" t="n">
         <v>1758.019821576723</v>
@@ -6172,25 +6172,25 @@
         <v>1758.019821576723</v>
       </c>
       <c r="S25" t="n">
-        <v>1758.019821576723</v>
+        <v>1562.763922598736</v>
       </c>
       <c r="T25" t="n">
-        <v>1535.377928651068</v>
+        <v>1340.122029673081</v>
       </c>
       <c r="U25" t="n">
-        <v>1246.263888021454</v>
+        <v>1051.007989043467</v>
       </c>
       <c r="V25" t="n">
-        <v>991.5793998155672</v>
+        <v>796.3235008375804</v>
       </c>
       <c r="W25" t="n">
-        <v>702.1622297786063</v>
+        <v>506.9063308006197</v>
       </c>
       <c r="X25" t="n">
-        <v>702.1622297786063</v>
+        <v>278.9167799026023</v>
       </c>
       <c r="Y25" t="n">
-        <v>515.585963292974</v>
+        <v>278.9167799026023</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,52 +6224,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6294,10 +6294,10 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.2075193111403</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431233</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783406</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413801</v>
+        <v>901.3723255570252</v>
       </c>
       <c r="X28" t="n">
-        <v>619.8559841413801</v>
+        <v>722.1291797712735</v>
       </c>
       <c r="Y28" t="n">
-        <v>619.8559841413801</v>
+        <v>722.1291797712735</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1465.885462454824</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>1999.417367126749</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6488,7 +6488,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
         <v>4461.783306331037</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6552,16 +6552,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>589.465595692555</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,7 +6637,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208121</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="W31" t="n">
-        <v>999.1036114208121</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X31" t="n">
-        <v>771.1140605227947</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y31" t="n">
-        <v>771.1140605227947</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.058905050226</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M32" t="n">
-        <v>2209.609207880054</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3189.361480106701</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6780,7 +6780,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6789,16 +6789,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>528.0379765536118</v>
+        <v>657.5623770791267</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1017936257048</v>
+        <v>488.6261941512198</v>
       </c>
       <c r="D34" t="n">
-        <v>208.9851542133691</v>
+        <v>338.509554738884</v>
       </c>
       <c r="E34" t="n">
-        <v>208.9851542133691</v>
+        <v>190.596461156491</v>
       </c>
       <c r="F34" t="n">
-        <v>208.9851542133691</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>208.9851542133691</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6856,7 +6856,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6874,34 +6874,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208121</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838515</v>
+        <v>1287.992971950914</v>
       </c>
       <c r="X34" t="n">
-        <v>709.6864413838515</v>
+        <v>1060.003421052897</v>
       </c>
       <c r="Y34" t="n">
-        <v>709.6864413838515</v>
+        <v>839.2108419093664</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,7 +7017,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7026,10 +7026,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902953</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>787.5808954301633</v>
+        <v>787.5808954309819</v>
       </c>
       <c r="C37" t="n">
-        <v>666.0388687276477</v>
+        <v>666.0388687285149</v>
       </c>
       <c r="D37" t="n">
-        <v>563.3163855407033</v>
+        <v>563.3163855416192</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7974481837016</v>
+        <v>462.7974481846665</v>
       </c>
       <c r="F37" t="n">
-        <v>364.6242663612982</v>
+        <v>363.3016569121961</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3155859614085</v>
+        <v>242.9929765123551</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4925554046577</v>
+        <v>144.1699459556528</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.134679411836</v>
+        <v>187.1346794118837</v>
       </c>
       <c r="K37" t="n">
-        <v>437.5728748772183</v>
+        <v>437.5728748773137</v>
       </c>
       <c r="L37" t="n">
-        <v>800.5836858422206</v>
+        <v>800.5836858423636</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.191743958276</v>
+        <v>1191.191743958466</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.051133180646</v>
+        <v>1579.051133180885</v>
       </c>
       <c r="O37" t="n">
-        <v>1924.831744617566</v>
+        <v>1924.831744617851</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.890257567731</v>
+        <v>2203.890257568064</v>
       </c>
       <c r="Q37" t="n">
-        <v>2327.951566236752</v>
+        <v>2327.951566237133</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.515265219671</v>
+        <v>2285.515265220101</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.223537271889</v>
+        <v>2141.223537272367</v>
       </c>
       <c r="T37" t="n">
-        <v>1966.851078066806</v>
+        <v>1966.851078067333</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.142367417841</v>
+        <v>1725.142367418417</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.852035437346</v>
+        <v>1517.85203543797</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.829021625776</v>
+        <v>1275.829021626449</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.23362695315</v>
+        <v>1095.233626953872</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.8352040350117</v>
+        <v>921.8352040357815</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7178,22 +7178,22 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296942</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215046</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841671</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774085</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430888</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932518</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160441</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819748</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7354,28 +7354,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036711</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296942</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,28 +7488,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7591,16 +7591,16 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7676,7 +7676,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7828,13 +7828,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195773</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8696,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>127.4845029525669</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>127.4845029525779</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>43.35333890058715</v>
+        <v>43.35333890059528</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>15.16213830202244</v>
+        <v>15.16213830202275</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>121.3812008354528</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>127.484502952577</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>43.35333890059528</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>379.5216619768451</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.16213830202244</v>
+        <v>15.16213830202275</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>127.4845029525667</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>127.4845029525678</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>43.35333890058769</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.0564249642658</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.16213830202244</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>127.4845029525667</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>127.4845029525678</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>169.4443742409956</v>
+        <v>43.35333890058789</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>15.16213830202244</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>253.4306266364366</v>
+        <v>43.35333890058789</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>15.16213830202247</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>198.7154374299952</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>76.45227440777427</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>11.64153443578837</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>163.3991441460108</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>80.35488666587526</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>410.4190035206676</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>410.4190035206676</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>42.18527643328036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4512795045581</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.05094259824723</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3033399882067</v>
+        <v>23.42795726038796</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4154739963984</v>
+        <v>220.4154739963985</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>29.51637073470559</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5581238002447</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4512795045581</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.05094259824705</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3033399882068</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>286.2229002233179</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>11.92840327983677</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>136.2083724540372</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>101.4718971748808</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.05094259824703</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>101.4718971748813</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H22" t="n">
         <v>146.5581238002446</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.05094259824703</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>216.9175356719869</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>87.86852890989869</v>
       </c>
       <c r="H25" t="n">
         <v>146.5581238002446</v>
@@ -24412,7 +24412,7 @@
         <v>98.05094259824706</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.87414953131889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>123.076236749291</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>48.25894106114296</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>118.7517891546217</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>48.93987327667909</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>51.33597558191565</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>32.46513634699603</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.309383355614423</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.309383354466682</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.450218385609332e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952259.6743185023</v>
+        <v>952259.6743185024</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>952259.6743185024</v>
+        <v>952259.6743185023</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>950497.7775739206</v>
+        <v>950497.7775739207</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>950497.7775739204</v>
+        <v>950497.7775739206</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>982042.7333694148</v>
+        <v>982042.7333694471</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26323,19 +26323,19 @@
         <v>453626.1785078861</v>
       </c>
       <c r="F2" t="n">
+        <v>453626.1785078863</v>
+      </c>
+      <c r="G2" t="n">
         <v>453626.178507886</v>
       </c>
-      <c r="G2" t="n">
-        <v>453626.1785078862</v>
-      </c>
       <c r="H2" t="n">
-        <v>453626.1785078862</v>
+        <v>453626.178507886</v>
       </c>
       <c r="I2" t="n">
         <v>453626.178507886</v>
       </c>
       <c r="J2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.054920031</v>
       </c>
       <c r="K2" t="n">
         <v>456644.0549200308</v>
@@ -26344,13 +26344,13 @@
         <v>456644.0549200309</v>
       </c>
       <c r="M2" t="n">
-        <v>472080.9481816557</v>
+        <v>472080.9481816712</v>
       </c>
       <c r="N2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="O2" t="n">
         <v>472099.0176719632</v>
-      </c>
-      <c r="O2" t="n">
-        <v>472099.0176719631</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719632</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639703.3804282959</v>
+        <v>639703.3804282941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257274.6877527453</v>
+        <v>257274.6877527452</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169415.1097376947</v>
+        <v>169415.1097377333</v>
       </c>
       <c r="N3" t="n">
-        <v>43.93756436391747</v>
+        <v>43.93756432559144</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,37 +26424,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26074.75651488304</v>
+        <v>26074.7565148832</v>
       </c>
       <c r="F4" t="n">
-        <v>26074.75651488303</v>
+        <v>26074.75651488317</v>
       </c>
       <c r="G4" t="n">
-        <v>26074.75651488304</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="H4" t="n">
-        <v>26074.75651488304</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="I4" t="n">
-        <v>26074.75651488305</v>
+        <v>26074.75651488306</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>18148.49231918995</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="M4" t="n">
-        <v>33587.5812369996</v>
+        <v>33587.5812370155</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740902</v>
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940041</v>
       </c>
       <c r="F5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940041</v>
       </c>
       <c r="G5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="H5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="I5" t="n">
         <v>94477.49060940044</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>100328.0537802289</v>
+        <v>100328.053780233</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26522,40 +26522,40 @@
         <v>-384076.6264631191</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514255</v>
+        <v>205891.2527514256</v>
       </c>
       <c r="D6" t="n">
         <v>205891.2527514256</v>
       </c>
       <c r="E6" t="n">
-        <v>-306629.4490446934</v>
+        <v>-306709.7657367093</v>
       </c>
       <c r="F6" t="n">
-        <v>333073.9313836026</v>
+        <v>332993.614691585</v>
       </c>
       <c r="G6" t="n">
-        <v>333073.9313836027</v>
+        <v>332993.6146915847</v>
       </c>
       <c r="H6" t="n">
-        <v>333073.9313836027</v>
+        <v>332993.6146915848</v>
       </c>
       <c r="I6" t="n">
-        <v>333073.9313836027</v>
+        <v>332993.6146915848</v>
       </c>
       <c r="J6" t="n">
-        <v>84837.35659438193</v>
+        <v>84770.16110415645</v>
       </c>
       <c r="K6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569012</v>
       </c>
       <c r="L6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="M6" t="n">
-        <v>168750.2034267324</v>
+        <v>168750.1248636882</v>
       </c>
       <c r="N6" t="n">
-        <v>338116.7557960881</v>
+        <v>338116.7557961264</v>
       </c>
       <c r="O6" t="n">
         <v>338160.6933604521</v>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859259</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>977.3128539252468</v>
+        <v>977.3128539252446</v>
       </c>
       <c r="F3" t="n">
-        <v>977.3128539252468</v>
+        <v>977.3128539252446</v>
       </c>
       <c r="G3" t="n">
-        <v>977.3128539252469</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="H3" t="n">
-        <v>977.3128539252469</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="I3" t="n">
         <v>977.3128539252466</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-2.090792417868801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313749</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05492195545509304</v>
+        <v>0.0549219554069893</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.5691897081601</v>
+        <v>599.5691897081579</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.4638466680517</v>
+        <v>112.4638466680515</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.351885444755199e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2007271439653</v>
+        <v>529.2007271439655</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3122034609648</v>
+        <v>665.312203460965</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439653</v>
+        <v>529.2007271439655</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439653</v>
+        <v>529.2007271439655</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>309.8439548256353</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>348.2082838945687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>98.95375469339473</v>
+        <v>384.1324267389197</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.806844538051894</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>172.4905932964275</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.030286966852145e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-3.765876499528531e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.612327573061104e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="C37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="D37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="E37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="F37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="G37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="H37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="I37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="J37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="K37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="L37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="M37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="N37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="O37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="P37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="S37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="T37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="U37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="V37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="W37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="X37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.92021466313745</v>
+        <v>46.9202146631856</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-7.009423413232274e-15</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928895895176869</v>
+        <v>3.92889589517686</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648003</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4687589988064</v>
+        <v>151.468758998806</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4601279832681</v>
+        <v>333.4601279832673</v>
       </c>
       <c r="K11" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261038</v>
       </c>
       <c r="L11" t="n">
-        <v>620.0092389781242</v>
+        <v>620.0092389781228</v>
       </c>
       <c r="M11" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539743</v>
       </c>
       <c r="N11" t="n">
-        <v>701.0427168161472</v>
+        <v>701.0427168161456</v>
       </c>
       <c r="O11" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584806</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9801408463031</v>
+        <v>564.9801408463018</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002804</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754036</v>
       </c>
       <c r="S11" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134278</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113671</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141487</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197696</v>
       </c>
       <c r="H12" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040933</v>
       </c>
       <c r="I12" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597331</v>
       </c>
       <c r="J12" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962613</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4502579525077</v>
+        <v>339.4502579525069</v>
       </c>
       <c r="L12" t="n">
-        <v>456.4327625808429</v>
+        <v>456.4327625808419</v>
       </c>
       <c r="M12" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892582</v>
       </c>
       <c r="N12" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105007</v>
       </c>
       <c r="O12" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951202</v>
       </c>
       <c r="P12" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509179</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305691</v>
       </c>
       <c r="R12" t="n">
-        <v>130.5173656619415</v>
+        <v>130.5173656619412</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408876</v>
       </c>
       <c r="T12" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880183</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630064</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504539</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719491</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99919542270028</v>
+        <v>52.99919542270016</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5993781143712</v>
+        <v>124.5993781143709</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7550536584369</v>
+        <v>204.7550536584364</v>
       </c>
       <c r="L13" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851385</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2591072169349</v>
+        <v>276.2591072169342</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6902831167818</v>
+        <v>269.6902831167812</v>
       </c>
       <c r="O13" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955689</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888762</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427119</v>
       </c>
       <c r="R13" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892225</v>
       </c>
       <c r="S13" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876546</v>
       </c>
       <c r="T13" t="n">
-        <v>7.530115431883047</v>
+        <v>7.530115431883029</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0961291331729752</v>
+        <v>0.09612913317297497</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928895895176869</v>
+        <v>3.92889589517686</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648003</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4687589988064</v>
+        <v>151.468758998806</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4601279832681</v>
+        <v>333.4601279832673</v>
       </c>
       <c r="K14" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261038</v>
       </c>
       <c r="L14" t="n">
-        <v>620.0092389781242</v>
+        <v>620.0092389781228</v>
       </c>
       <c r="M14" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539743</v>
       </c>
       <c r="N14" t="n">
-        <v>701.0427168161472</v>
+        <v>701.0427168161456</v>
       </c>
       <c r="O14" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584806</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9801408463031</v>
+        <v>564.9801408463018</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002804</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754036</v>
       </c>
       <c r="S14" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134278</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113671</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141487</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197696</v>
       </c>
       <c r="H15" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040933</v>
       </c>
       <c r="I15" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597331</v>
       </c>
       <c r="J15" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962613</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4502579525077</v>
+        <v>339.4502579525069</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4327625808429</v>
+        <v>456.4327625808419</v>
       </c>
       <c r="M15" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892582</v>
       </c>
       <c r="N15" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105007</v>
       </c>
       <c r="O15" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951202</v>
       </c>
       <c r="P15" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509179</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305691</v>
       </c>
       <c r="R15" t="n">
-        <v>130.5173656619415</v>
+        <v>130.5173656619412</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408876</v>
       </c>
       <c r="T15" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880183</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630064</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504539</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719491</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99919542270028</v>
+        <v>52.99919542270016</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5993781143712</v>
+        <v>124.5993781143709</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7550536584369</v>
+        <v>204.7550536584364</v>
       </c>
       <c r="L16" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851385</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2591072169349</v>
+        <v>276.2591072169342</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6902831167818</v>
+        <v>269.6902831167812</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955689</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888762</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427119</v>
       </c>
       <c r="R16" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892225</v>
       </c>
       <c r="S16" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876546</v>
       </c>
       <c r="T16" t="n">
-        <v>7.530115431883047</v>
+        <v>7.530115431883029</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0961291331729752</v>
+        <v>0.09612913317297497</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928895895176869</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I17" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4601279832681</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7702912261051</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L17" t="n">
-        <v>620.0092389781244</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M17" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N17" t="n">
-        <v>701.0427168161473</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O17" t="n">
-        <v>661.9747582584822</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9801408463031</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T17" t="n">
         <v>17.19874178113675</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3143116716141495</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.102144629197701</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H18" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J18" t="n">
-        <v>198.6065677962618</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4502579525077</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L18" t="n">
-        <v>456.432762580843</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M18" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N18" t="n">
-        <v>546.7327823105021</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1536828951214</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P18" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R18" t="n">
         <v>130.5173656619415</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04641449408885</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T18" t="n">
-        <v>8.473118044880204</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>15.66904870719495</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99919542270029</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J19" t="n">
         <v>124.5993781143712</v>
@@ -32397,34 +32397,34 @@
         <v>204.7550536584369</v>
       </c>
       <c r="L19" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2591072169349</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N19" t="n">
         <v>269.6902831167818</v>
       </c>
       <c r="O19" t="n">
-        <v>249.1026270955696</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R19" t="n">
-        <v>79.24244877892245</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S19" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T19" t="n">
-        <v>7.530115431883048</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09612913317297521</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928895895176869</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I20" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4601279832681</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7702912261051</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L20" t="n">
-        <v>620.0092389781244</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M20" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N20" t="n">
-        <v>701.0427168161473</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O20" t="n">
-        <v>661.9747582584822</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9801408463031</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S20" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T20" t="n">
         <v>17.19874178113675</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3143116716141495</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.102144629197701</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H21" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I21" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J21" t="n">
-        <v>198.6065677962618</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4502579525077</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L21" t="n">
-        <v>456.432762580843</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M21" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N21" t="n">
-        <v>546.7327823105021</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O21" t="n">
-        <v>500.1536828951214</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P21" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R21" t="n">
         <v>130.5173656619415</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04641449408885</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T21" t="n">
-        <v>8.473118044880204</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>15.66904870719495</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99919542270029</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J22" t="n">
         <v>124.5993781143712</v>
@@ -32634,34 +32634,34 @@
         <v>204.7550536584369</v>
       </c>
       <c r="L22" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2591072169349</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N22" t="n">
         <v>269.6902831167818</v>
       </c>
       <c r="O22" t="n">
-        <v>249.1026270955696</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R22" t="n">
-        <v>79.24244877892245</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S22" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T22" t="n">
-        <v>7.530115431883048</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09612913317297521</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.5108386286556</v>
+        <v>321.5108386286548</v>
       </c>
       <c r="K11" t="n">
-        <v>603.8258527522892</v>
+        <v>603.825852752288</v>
       </c>
       <c r="L11" t="n">
-        <v>801.9040385585874</v>
+        <v>801.904038558586</v>
       </c>
       <c r="M11" t="n">
-        <v>587.0180110792701</v>
+        <v>459.5335081267016</v>
       </c>
       <c r="N11" t="n">
-        <v>471.6296532195562</v>
+        <v>599.1141561721325</v>
       </c>
       <c r="O11" t="n">
-        <v>812.6767280995407</v>
+        <v>812.6767280995392</v>
       </c>
       <c r="P11" t="n">
-        <v>655.5458532625162</v>
+        <v>655.5458532625148</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2858573857366</v>
+        <v>414.2858573857356</v>
       </c>
       <c r="R11" t="n">
-        <v>96.92938883425452</v>
+        <v>96.92938883425393</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>197.8599764700039</v>
+        <v>197.8599764700034</v>
       </c>
       <c r="K12" t="n">
-        <v>244.9621578787358</v>
+        <v>244.9621578787432</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8783828009687</v>
+        <v>317.8783828009677</v>
       </c>
       <c r="M12" t="n">
-        <v>390.5014714672412</v>
+        <v>390.5014714672399</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271675</v>
       </c>
       <c r="O12" t="n">
-        <v>357.5574384506769</v>
+        <v>357.5574384506758</v>
       </c>
       <c r="P12" t="n">
-        <v>267.4430174365887</v>
+        <v>267.4430174365877</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.4324315803973</v>
+        <v>338.4324315803967</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.24019799769843</v>
+        <v>31.24019799769813</v>
       </c>
       <c r="K13" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325536</v>
       </c>
       <c r="L13" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454547</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787748</v>
       </c>
       <c r="N13" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096086</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4288905537702</v>
+        <v>210.4288905537697</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.41219769101788</v>
+        <v>61.41219769101754</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>273.7954242920346</v>
+        <v>321.5108386286548</v>
       </c>
       <c r="K14" t="n">
-        <v>279.6804401811245</v>
+        <v>603.825852752288</v>
       </c>
       <c r="L14" t="n">
-        <v>801.9040385585874</v>
+        <v>801.904038558586</v>
       </c>
       <c r="M14" t="n">
-        <v>909.0470416195357</v>
+        <v>587.0180110792786</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9765776315404</v>
+        <v>471.6296532195547</v>
       </c>
       <c r="O14" t="n">
-        <v>812.6767280995407</v>
+        <v>812.6767280995392</v>
       </c>
       <c r="P14" t="n">
-        <v>333.7471450910336</v>
+        <v>655.5458532625148</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.2858573857366</v>
+        <v>414.2858573857356</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21296896127208</v>
+        <v>96.92938883425393</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.76894112959505</v>
+        <v>197.8599764700034</v>
       </c>
       <c r="K15" t="n">
-        <v>201.6088189781487</v>
+        <v>244.9621578787432</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8783828009687</v>
+        <v>317.8783828009677</v>
       </c>
       <c r="M15" t="n">
-        <v>770.0231334440863</v>
+        <v>390.5014714672399</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271675</v>
       </c>
       <c r="O15" t="n">
-        <v>357.5574384506769</v>
+        <v>357.5574384506758</v>
       </c>
       <c r="P15" t="n">
-        <v>267.4430174365887</v>
+        <v>267.4430174365877</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.3551438445482</v>
+        <v>338.4324315803967</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.24019799769843</v>
+        <v>31.24019799769813</v>
       </c>
       <c r="K16" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325536</v>
       </c>
       <c r="L16" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454547</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787748</v>
       </c>
       <c r="N16" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960098</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096086</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4288905537702</v>
+        <v>210.4288905537697</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.41219769101788</v>
+        <v>61.41219769101754</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>321.5108386286556</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K17" t="n">
-        <v>603.8258527522893</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L17" t="n">
-        <v>801.9040385585876</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M17" t="n">
-        <v>587.0180110792699</v>
+        <v>459.5335081267029</v>
       </c>
       <c r="N17" t="n">
-        <v>471.6296532195564</v>
+        <v>599.1141561721239</v>
       </c>
       <c r="O17" t="n">
-        <v>812.6767280995408</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P17" t="n">
         <v>655.5458532625162</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.2858573857366</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R17" t="n">
-        <v>96.92938883425455</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.76894112959508</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K18" t="n">
-        <v>466.0740559907273</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8783828009688</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M18" t="n">
-        <v>390.5014714672412</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3910702271688</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O18" t="n">
-        <v>357.557438450677</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P18" t="n">
-        <v>267.4430174365887</v>
+        <v>310.7963563371762</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.411568808814</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.24019799769844</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4855618325541</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L19" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N19" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O19" t="n">
         <v>273.6877550096092</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4288905537702</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.41219769101791</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>321.5108386286556</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K20" t="n">
-        <v>603.8258527522893</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L20" t="n">
-        <v>801.9040385585876</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M20" t="n">
-        <v>587.0180110792699</v>
+        <v>459.5335081267029</v>
       </c>
       <c r="N20" t="n">
-        <v>471.6296532195564</v>
+        <v>599.1141561721239</v>
       </c>
       <c r="O20" t="n">
-        <v>812.6767280995408</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P20" t="n">
         <v>655.5458532625162</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.2858573857366</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R20" t="n">
-        <v>96.92938883425455</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.76894112959508</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K21" t="n">
-        <v>371.0531932191444</v>
+        <v>244.9621578787365</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8783828009688</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M21" t="n">
-        <v>390.5014714672412</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3910702271688</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O21" t="n">
-        <v>357.557438450677</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P21" t="n">
-        <v>267.4430174365887</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.4324315803973</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.24019799769844</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4855618325541</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L22" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N22" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O22" t="n">
         <v>273.6877550096092</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4288905537702</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.41219769101791</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>197.8599764700039</v>
       </c>
       <c r="K24" t="n">
-        <v>455.0394456145852</v>
+        <v>244.9621578787365</v>
       </c>
       <c r="L24" t="n">
         <v>317.8783828009686</v>
@@ -36455,7 +36455,7 @@
         <v>267.4430174365885</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.3551438445481</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3055518223274</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>532.0423888001062</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>262.4358392395079</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>618.9892585383429</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306618</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443195</v>
@@ -37245,7 +37245,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>632.6567220787867</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.49863127620367</v>
+        <v>92.49863127625179</v>
       </c>
       <c r="K37" t="n">
-        <v>252.967874207457</v>
+        <v>252.9678742075051</v>
       </c>
       <c r="L37" t="n">
-        <v>366.6775868333356</v>
+        <v>366.6775868333837</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5535940566213</v>
+        <v>394.5535940566694</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7771608306775</v>
+        <v>391.7771608307256</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2733448857772</v>
+        <v>349.2733448858253</v>
       </c>
       <c r="P37" t="n">
-        <v>281.8772858082478</v>
+        <v>281.877285808296</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3144532010311</v>
+        <v>125.3144532010792</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>866.0091179129995</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908542</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,28 +37780,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>866.0091179129995</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
